--- a/DutyOfServiceDepart/Files/График дежурств.xlsx
+++ b/DutyOfServiceDepart/Files/График дежурств.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>График дежурств на 1 июля 2019 г.-31 июля 2019 г.</x:t>
   </x:si>
@@ -26,9 +26,6 @@
   </x:si>
   <x:si>
     <x:t>Сорокина Светлана</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иванов Иван3</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> </x:t>
@@ -437,7 +434,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
@@ -445,7 +442,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
@@ -461,7 +458,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
@@ -477,7 +474,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
@@ -485,7 +482,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
@@ -493,7 +490,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
@@ -501,7 +498,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
@@ -509,7 +506,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
@@ -517,7 +514,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
@@ -525,7 +522,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
@@ -533,7 +530,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
@@ -541,7 +538,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
@@ -549,7 +546,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
@@ -557,7 +554,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
@@ -565,7 +562,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
@@ -573,7 +570,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
@@ -581,7 +578,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
@@ -589,7 +586,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2">
@@ -597,7 +594,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2">
@@ -605,7 +602,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2">
@@ -613,7 +610,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2">
@@ -621,7 +618,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2">
@@ -629,7 +626,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:2">
@@ -637,7 +634,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:2">
@@ -645,7 +642,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2">
@@ -653,7 +650,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2">
@@ -661,7 +658,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
